--- a/Reports/Week02_report.xlsx
+++ b/Reports/Week02_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="66">
   <si>
     <t>Student ID</t>
   </si>
@@ -190,13 +190,16 @@
     <t>Riyas ahamed J</t>
   </si>
   <si>
-    <t>Week04</t>
-  </si>
-  <si>
-    <t>Error messages_200 OK_404 Not Found, Google Chrome Extensions, Tweet_AI tool_Futurepedia, Download_Install_ Google Chrome Canary Version</t>
-  </si>
-  <si>
-    <t>Tweet_AI tool_Futurepedia</t>
+    <t>Week02</t>
+  </si>
+  <si>
+    <t>create_wordpress_blog_and_7articles, update_linkedin_with-photo, create_canva-menu, download_figma_and_install</t>
+  </si>
+  <si>
+    <t>create_wordpress_blog_and_7articles, update_linkedin_with-photo</t>
+  </si>
+  <si>
+    <t>update_linkedin_with-photo</t>
   </si>
   <si>
     <t>Completed</t>
@@ -205,10 +208,10 @@
     <t>Pending</t>
   </si>
   <si>
-    <t>Week: Week04</t>
-  </si>
-  <si>
-    <t>Generated: 2023-10-03 11:47:27 AM</t>
+    <t>Week: Week02</t>
+  </si>
+  <si>
+    <t>Generated: 2023-10-03 11:50:54 AM</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="138.7109375" customWidth="1"/>
+    <col min="4" max="4" width="112.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
@@ -624,7 +627,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -644,7 +647,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -661,7 +664,7 @@
         <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -678,7 +681,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -695,7 +698,7 @@
         <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -715,7 +718,7 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -735,7 +738,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -752,7 +755,7 @@
         <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -769,7 +772,7 @@
         <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -786,7 +789,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -803,7 +806,7 @@
         <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -813,20 +816,17 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -843,7 +843,7 @@
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -860,10 +860,10 @@
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -993,20 +993,17 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1020,7 +1017,7 @@
         <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1030,40 +1027,34 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1080,7 +1071,7 @@
         <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1097,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1105,12 +1096,12 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Week02_report.xlsx
+++ b/Reports/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 11:50:54 AM</t>
+    <t>Generated: 2023-10-03 12:34:44 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week02_report.xlsx
+++ b/Reports/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 12:34:44 PM</t>
+    <t>Generated: 2023-10-03 02:56:38 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week02_report.xlsx
+++ b/Reports/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 02:56:38 PM</t>
+    <t>Generated: 2023-10-03 09:45:56 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week02_report.xlsx
+++ b/Reports/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 09:45:56 PM</t>
+    <t>Generated: 2023-10-05 10:40:25 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week02_report.xlsx
+++ b/Reports/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-05 10:40:25 AM</t>
+    <t>Generated: 2023-10-06 01:09:57 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week02_report.xlsx
+++ b/Reports/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-06 01:09:57 PM</t>
+    <t>Generated: 2023-10-07 09:06:20 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week02_report.xlsx
+++ b/Reports/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-07 09:06:20 PM</t>
+    <t>Generated: 2023-10-08 11:29:27 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week02_report.xlsx
+++ b/Reports/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-08 11:29:27 AM</t>
+    <t>Generated: 2023-10-08 11:51:58 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week02_report.xlsx
+++ b/Reports/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-08 11:51:58 AM</t>
+    <t>Generated: 2023-10-10 10:43:20 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week02_report.xlsx
+++ b/Reports/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-10 10:43:20 AM</t>
+    <t>Generated: 2023-10-13 12:03:46 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week02_report.xlsx
+++ b/Reports/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-13 12:03:46 PM</t>
+    <t>Generated: 2023-10-19 02:26:39 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week02_report.xlsx
+++ b/Reports/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-19 02:26:39 PM</t>
+    <t>Generated: 2023-10-23 12:57:25 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week02_report.xlsx
+++ b/Reports/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-23 12:57:25 PM</t>
+    <t>Generated: 2023-10-25 11:22:40 AM</t>
   </si>
 </sst>
 </file>
